--- a/biology/Zoologie/Dissodactylus/Dissodactylus.xlsx
+++ b/biology/Zoologie/Dissodactylus/Dissodactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dissodactylus est un genre de crabes, ses espèces sont symbiotique d'échinodermes.
 </t>
@@ -511,11 +523,13 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont symbiotiques d’échinides irréguliers. Les hôtes sont des clypéastéroides, appartiennent à la famille des Mellitidae pour neuf espèces. 
 Cependant l’espèce Dissodactylus primitivus est associée à des spatangoïdes : Meoma ventricosa et Plagiobrissus grandis. 
-Occasionnellement, Dissodactylus crinitichelis, Dissodactylus latus et Dissodactylus mellitae peuvent s’associer à Clypeaster subdepressus [1],[2].
+Occasionnellement, Dissodactylus crinitichelis, Dissodactylus latus et Dissodactylus mellitae peuvent s’associer à Clypeaster subdepressus ,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Liste des espèces par région</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèces de l'Atlantique:
 Dissodactylus crinitichelis Moreira, 1901 (= D. encopei, Rathbun 1901)
@@ -565,7 +581,7 @@
 Dissodactylus speciosus (Aikawa, 1933)
 Dissodactylus tokyoensis (Aikawa, 1933)
 Dissodactylus unicornis (Aikawa, 1933)
-Systema Brachyurorum[3]
+Systema Brachyurorum
 </t>
         </is>
       </c>
